--- a/March'21/16.03.2021/Market Due.xlsx
+++ b/March'21/16.03.2021/Market Due.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="420" windowWidth="19815" windowHeight="7665" firstSheet="2" activeTab="12"/>
+    <workbookView xWindow="480" yWindow="420" windowWidth="19815" windowHeight="7665" firstSheet="2" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="01" sheetId="1" r:id="rId1"/>
@@ -673,10 +673,10 @@
     <t>Date:16.03.2021</t>
   </si>
   <si>
-    <t>Till-8.00 PM</t>
+    <t>16.03.2021</t>
   </si>
   <si>
-    <t>16.03.2021</t>
+    <t>Till-11.20 PM</t>
   </si>
 </sst>
 </file>
@@ -1050,7 +1050,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1153,7 +1153,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1564,28 +1563,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="46"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="45"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="47"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="49"/>
+      <c r="A2" s="46"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="48"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="52"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="51"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="53"/>
-      <c r="B4" s="54"/>
-      <c r="C4" s="55"/>
+      <c r="A4" s="52"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="54"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -1887,11 +1886,11 @@
       <c r="A29" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="56">
+      <c r="B29" s="55">
         <f>SUM(B6:B28)</f>
         <v>59281</v>
       </c>
-      <c r="C29" s="57"/>
+      <c r="C29" s="56"/>
     </row>
   </sheetData>
   <sortState ref="A6:C28">
@@ -1924,28 +1923,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="60"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="59"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="61"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="63"/>
+      <c r="A2" s="60"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="62"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="66"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="65"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="67"/>
-      <c r="B4" s="68"/>
-      <c r="C4" s="69"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="68"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -2289,11 +2288,11 @@
       <c r="A29" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="70">
+      <c r="B29" s="69">
         <f>SUM(B6:B28)</f>
         <v>123427</v>
       </c>
-      <c r="C29" s="71"/>
+      <c r="C29" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2324,28 +2323,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="60"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="59"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="61"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="63"/>
+      <c r="A2" s="60"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="62"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="66"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="65"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="67"/>
-      <c r="B4" s="68"/>
-      <c r="C4" s="69"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="68"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -2696,11 +2695,11 @@
       <c r="A29" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="70">
+      <c r="B29" s="69">
         <f>SUM(B6:B28)</f>
         <v>120005</v>
       </c>
-      <c r="C29" s="71"/>
+      <c r="C29" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2731,28 +2730,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="60"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="59"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="61"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="63"/>
+      <c r="A2" s="60"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="62"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="66"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="65"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="67"/>
-      <c r="B4" s="68"/>
-      <c r="C4" s="69"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="68"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -3102,11 +3101,11 @@
       <c r="A29" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="70">
+      <c r="B29" s="69">
         <f>SUM(B6:B28)</f>
         <v>144667</v>
       </c>
-      <c r="C29" s="71"/>
+      <c r="C29" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3124,7 +3123,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B29" sqref="B29:C29"/>
     </sheetView>
   </sheetViews>
@@ -3137,28 +3136,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="60"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="59"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="61"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="63"/>
+      <c r="A2" s="60"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="62"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="66"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="65"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="67"/>
-      <c r="B4" s="68"/>
-      <c r="C4" s="69"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="68"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -3184,7 +3183,7 @@
         <v>26638</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -3217,7 +3216,7 @@
         <v>14007</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -3326,7 +3325,7 @@
         <v>7681</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E17" s="18"/>
       <c r="F17" s="18"/>
@@ -3348,7 +3347,7 @@
         <v>2600</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E18" s="18"/>
       <c r="F18" s="18"/>
@@ -3436,7 +3435,7 @@
         <v>16025</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E22" s="21"/>
       <c r="F22" s="21"/>
@@ -3469,7 +3468,7 @@
         <v>5998</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -3520,11 +3519,11 @@
       <c r="A29" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="70">
+      <c r="B29" s="69">
         <f>SUM(B6:B28)</f>
         <v>162606</v>
       </c>
-      <c r="C29" s="71"/>
+      <c r="C29" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3578,16 +3577,16 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
     <col min="3" max="3" width="11.28515625" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
     <col min="5" max="5" width="12.28515625" customWidth="1"/>
@@ -3595,16 +3594,16 @@
     <col min="11" max="11" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
-        <v>77</v>
-      </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
+    <row r="1" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="71" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
       <c r="E1" s="35"/>
     </row>
-    <row r="2" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
         <v>38</v>
       </c>
@@ -3619,23 +3618,23 @@
       </c>
       <c r="E2" s="36"/>
     </row>
-    <row r="3" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>39</v>
       </c>
       <c r="B3" s="28">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C3" s="28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" s="28">
         <f>B3-C3</f>
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E3" s="37"/>
     </row>
-    <row r="4" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
         <v>40</v>
       </c>
@@ -3643,64 +3642,64 @@
         <v>10</v>
       </c>
       <c r="C4" s="28">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" s="28">
         <f t="shared" ref="D4:D23" si="0">B4-C4</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E4" s="37"/>
     </row>
-    <row r="5" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
         <v>41</v>
       </c>
       <c r="B5" s="28">
-        <v>10</v>
-      </c>
-      <c r="C5" s="28">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="C5" s="42">
+        <v>0</v>
       </c>
       <c r="D5" s="28">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E5" s="37"/>
     </row>
-    <row r="6" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
         <v>42</v>
       </c>
       <c r="B6" s="28">
-        <v>6</v>
-      </c>
-      <c r="C6" s="28">
-        <v>14</v>
-      </c>
-      <c r="D6" s="29">
+        <v>10</v>
+      </c>
+      <c r="C6" s="42">
+        <v>0</v>
+      </c>
+      <c r="D6" s="28">
         <f t="shared" si="0"/>
-        <v>-8</v>
+        <v>10</v>
       </c>
       <c r="E6" s="37"/>
     </row>
-    <row r="7" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="28" t="s">
         <v>43</v>
       </c>
       <c r="B7" s="28">
-        <v>6</v>
-      </c>
-      <c r="C7" s="43">
-        <v>0</v>
-      </c>
-      <c r="D7" s="28">
+        <v>10</v>
+      </c>
+      <c r="C7" s="28">
+        <v>14</v>
+      </c>
+      <c r="D7" s="29">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>-4</v>
       </c>
       <c r="E7" s="37"/>
       <c r="G7" s="34"/>
     </row>
-    <row r="8" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
         <v>44</v>
       </c>
@@ -3708,146 +3707,140 @@
         <v>35</v>
       </c>
       <c r="C8" s="28">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D8" s="28">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="E8" s="38"/>
-      <c r="G8" s="42"/>
-    </row>
-    <row r="9" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G8" s="34"/>
+    </row>
+    <row r="9" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="28" t="s">
         <v>45</v>
       </c>
       <c r="B9" s="28">
         <v>5</v>
       </c>
-      <c r="C9" s="43">
-        <v>0</v>
+      <c r="C9" s="28">
+        <v>1</v>
       </c>
       <c r="D9" s="28">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E9" s="38"/>
     </row>
-    <row r="10" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
         <v>46</v>
       </c>
       <c r="B10" s="28">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C10" s="28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D10" s="28">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E10" s="38"/>
     </row>
-    <row r="11" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="28" t="s">
         <v>47</v>
       </c>
       <c r="B11" s="28">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C11" s="28">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D11" s="28">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="E11" s="38"/>
     </row>
-    <row r="12" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="28" t="s">
         <v>48</v>
       </c>
       <c r="B12" s="28">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C12" s="28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12" s="28">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E12" s="38"/>
-      <c r="K12">
-        <v>8.9880399160881306E+17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="28" t="s">
         <v>49</v>
       </c>
       <c r="B13" s="28">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C13" s="41">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" s="28">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E13" s="38"/>
-      <c r="K13">
-        <v>8.9880399160881306E+17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="28" t="s">
         <v>50</v>
       </c>
       <c r="B14" s="28">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C14" s="28">
         <v>3</v>
       </c>
       <c r="D14" s="28">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E14" s="38"/>
     </row>
-    <row r="15" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="28" t="s">
         <v>51</v>
       </c>
       <c r="B15" s="28">
-        <v>12</v>
-      </c>
-      <c r="C15" s="28">
-        <v>4</v>
+        <v>15</v>
+      </c>
+      <c r="C15" s="42">
+        <v>0</v>
       </c>
       <c r="D15" s="28">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E15" s="38"/>
     </row>
-    <row r="16" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="28" t="s">
         <v>52</v>
       </c>
       <c r="B16" s="28">
-        <v>15</v>
-      </c>
-      <c r="C16" s="28">
-        <v>4</v>
+        <v>10</v>
+      </c>
+      <c r="C16" s="42">
+        <v>0</v>
       </c>
       <c r="D16" s="28">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E16" s="37"/>
     </row>
@@ -3856,14 +3849,14 @@
         <v>53</v>
       </c>
       <c r="B17" s="28">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C17" s="28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17" s="28">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E17" s="37"/>
     </row>
@@ -3872,14 +3865,14 @@
         <v>54</v>
       </c>
       <c r="B18" s="28">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C18" s="28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" s="28">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E18" s="38"/>
     </row>
@@ -3891,11 +3884,11 @@
         <v>20</v>
       </c>
       <c r="C19" s="28">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D19" s="28">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="E19" s="37"/>
     </row>
@@ -3907,11 +3900,11 @@
         <v>15</v>
       </c>
       <c r="C20" s="28">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D20" s="28">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E20" s="37"/>
     </row>
@@ -3923,11 +3916,11 @@
         <v>10</v>
       </c>
       <c r="C21" s="28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D21" s="28">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E21" s="38"/>
     </row>
@@ -3939,11 +3932,11 @@
         <v>25</v>
       </c>
       <c r="C22" s="28">
-        <v>8</v>
-      </c>
-      <c r="D22" s="33">
-        <f>B22-C22</f>
-        <v>17</v>
+        <v>9</v>
+      </c>
+      <c r="D22" s="28">
+        <f t="shared" si="0"/>
+        <v>16</v>
       </c>
       <c r="E22" s="39"/>
     </row>
@@ -3952,14 +3945,14 @@
         <v>59</v>
       </c>
       <c r="B23" s="28">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="C23" s="28">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D23" s="28">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E23" s="40"/>
     </row>
@@ -3969,15 +3962,15 @@
       </c>
       <c r="B24" s="29">
         <f>SUM(B3:B23)</f>
-        <v>290</v>
+        <v>325</v>
       </c>
       <c r="C24" s="29">
         <f>SUM(C3:C23)</f>
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="D24" s="29">
         <f>SUM(D3:D23)</f>
-        <v>203</v>
+        <v>264</v>
       </c>
       <c r="E24" s="40"/>
     </row>
@@ -4007,10 +4000,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="71" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="72"/>
+      <c r="B1" s="71"/>
       <c r="C1" s="35"/>
       <c r="D1" s="35"/>
       <c r="E1" s="27"/>
@@ -4366,12 +4359,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="71" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
       <c r="E1" s="27"/>
     </row>
     <row r="2" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -4725,28 +4718,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="60"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="59"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="61"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="63"/>
+      <c r="A2" s="60"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="62"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="66"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="65"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="67"/>
-      <c r="B4" s="68"/>
-      <c r="C4" s="69"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="68"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -5072,11 +5065,11 @@
       <c r="A29" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="70">
+      <c r="B29" s="69">
         <f>SUM(B6:B28)</f>
         <v>124433</v>
       </c>
-      <c r="C29" s="71"/>
+      <c r="C29" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -5107,28 +5100,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="60"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="59"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="61"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="63"/>
+      <c r="A2" s="60"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="62"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="66"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="65"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="67"/>
-      <c r="B4" s="68"/>
-      <c r="C4" s="69"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="68"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -5448,11 +5441,11 @@
       <c r="A29" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="70">
+      <c r="B29" s="69">
         <f>SUM(B6:B28)</f>
         <v>123495</v>
       </c>
-      <c r="C29" s="71"/>
+      <c r="C29" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -5483,28 +5476,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="60"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="59"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="61"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="63"/>
+      <c r="A2" s="60"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="62"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="66"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="65"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="67"/>
-      <c r="B4" s="68"/>
-      <c r="C4" s="69"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="68"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -5836,11 +5829,11 @@
       <c r="A29" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="70">
+      <c r="B29" s="69">
         <f>SUM(B6:B28)</f>
         <v>112100</v>
       </c>
-      <c r="C29" s="71"/>
+      <c r="C29" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -5871,28 +5864,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="60"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="59"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="61"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="63"/>
+      <c r="A2" s="60"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="62"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="66"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="65"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="67"/>
-      <c r="B4" s="68"/>
-      <c r="C4" s="69"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="68"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -6224,11 +6217,11 @@
       <c r="A29" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="70">
+      <c r="B29" s="69">
         <f>SUM(B6:B28)</f>
         <v>163436</v>
       </c>
-      <c r="C29" s="71"/>
+      <c r="C29" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -6259,28 +6252,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="60"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="59"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="61"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="63"/>
+      <c r="A2" s="60"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="62"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="66"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="65"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="67"/>
-      <c r="B4" s="68"/>
-      <c r="C4" s="69"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="68"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -6616,11 +6609,11 @@
       <c r="A29" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="70">
+      <c r="B29" s="69">
         <f>SUM(B6:B28)</f>
         <v>128286</v>
       </c>
-      <c r="C29" s="71"/>
+      <c r="C29" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -6651,28 +6644,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="60"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="59"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="61"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="63"/>
+      <c r="A2" s="60"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="62"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="66"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="65"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="67"/>
-      <c r="B4" s="68"/>
-      <c r="C4" s="69"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="68"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -7014,11 +7007,11 @@
       <c r="A29" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="70">
+      <c r="B29" s="69">
         <f>SUM(B6:B28)</f>
         <v>117101</v>
       </c>
-      <c r="C29" s="71"/>
+      <c r="C29" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -7049,28 +7042,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="60"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="59"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="61"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="63"/>
+      <c r="A2" s="60"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="62"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="66"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="65"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="67"/>
-      <c r="B4" s="68"/>
-      <c r="C4" s="69"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="68"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -7414,11 +7407,11 @@
       <c r="A29" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="70">
+      <c r="B29" s="69">
         <f>SUM(B6:B28)</f>
         <v>121959</v>
       </c>
-      <c r="C29" s="71"/>
+      <c r="C29" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -7449,28 +7442,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="60"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="59"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="61"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="63"/>
+      <c r="A2" s="60"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="62"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="66"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="65"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="67"/>
-      <c r="B4" s="68"/>
-      <c r="C4" s="69"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="68"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -7819,11 +7812,11 @@
       <c r="A29" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="70">
+      <c r="B29" s="69">
         <f>SUM(B6:B28)</f>
         <v>128644</v>
       </c>
-      <c r="C29" s="71"/>
+      <c r="C29" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="4">
